--- a/KOA-Lottery-Excel.xlsx
+++ b/KOA-Lottery-Excel.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="2580" yWindow="3375" windowWidth="21600" windowHeight="11385" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" state="visible" r:id="rId1"/>
@@ -327,136 +327,135 @@
   </sheetPr>
   <dimension ref="A1:Y909"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="10.7109375" bestFit="1" customWidth="1" min="1" max="1"/>
-    <col width="9.7109375" bestFit="1" customWidth="1" min="2" max="10"/>
-    <col width="10.7109375" bestFit="1" customWidth="1" min="11" max="25"/>
+    <col width="5.7109375" customWidth="1" min="2" max="25"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="B1" t="inlineStr">
         <is>
-          <t>Lottery #1</t>
+          <t>#1</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>Lottery #2</t>
+          <t>#2</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>Lottery #3</t>
+          <t>#3</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>Lottery #4</t>
+          <t>#4</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>Lottery #5</t>
+          <t>#5</t>
         </is>
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t>Lottery #6</t>
+          <t>#6</t>
         </is>
       </c>
       <c r="H1" t="inlineStr">
         <is>
-          <t>Lottery #7</t>
+          <t>#7</t>
         </is>
       </c>
       <c r="I1" t="inlineStr">
         <is>
-          <t>Lottery #8</t>
+          <t>#8</t>
         </is>
       </c>
       <c r="J1" t="inlineStr">
         <is>
-          <t>Lottery #9</t>
+          <t>#9</t>
         </is>
       </c>
       <c r="K1" t="inlineStr">
         <is>
-          <t>Lottery #10</t>
+          <t>#10</t>
         </is>
       </c>
       <c r="L1" t="inlineStr">
         <is>
-          <t>Lottery #11</t>
+          <t>#11</t>
         </is>
       </c>
       <c r="M1" t="inlineStr">
         <is>
-          <t>Lottery #12</t>
+          <t>#12</t>
         </is>
       </c>
       <c r="N1" t="inlineStr">
         <is>
-          <t>Lottery #13</t>
+          <t>#13</t>
         </is>
       </c>
       <c r="O1" t="inlineStr">
         <is>
-          <t>Lottery #14</t>
+          <t>#14</t>
         </is>
       </c>
       <c r="P1" t="inlineStr">
         <is>
-          <t>Lottery #15</t>
+          <t>#15</t>
         </is>
       </c>
       <c r="Q1" t="inlineStr">
         <is>
-          <t>Lottery #16</t>
+          <t>#16</t>
         </is>
       </c>
       <c r="R1" t="inlineStr">
         <is>
-          <t>Lottery #17</t>
+          <t>#17</t>
         </is>
       </c>
       <c r="S1" t="inlineStr">
         <is>
-          <t>Lottery #18</t>
+          <t>#18</t>
         </is>
       </c>
       <c r="T1" t="inlineStr">
         <is>
-          <t>Lottery #19</t>
+          <t>#19</t>
         </is>
       </c>
       <c r="U1" t="inlineStr">
         <is>
-          <t>Lottery #20</t>
+          <t>#20</t>
         </is>
       </c>
       <c r="V1" t="inlineStr">
         <is>
-          <t>Lottery #21</t>
+          <t>#21</t>
         </is>
       </c>
       <c r="W1" t="inlineStr">
         <is>
-          <t>Lottery #22</t>
+          <t>#22</t>
         </is>
       </c>
       <c r="X1" t="inlineStr">
         <is>
-          <t>Lottery #23</t>
+          <t>#23</t>
         </is>
       </c>
       <c r="Y1" t="inlineStr">
         <is>
-          <t>Lottery #24</t>
+          <t>#24</t>
         </is>
       </c>
     </row>
@@ -624,6 +623,78 @@
           <t>5/6/2020</t>
         </is>
       </c>
+      <c r="B4" t="n">
+        <v>3</v>
+      </c>
+      <c r="C4" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="n">
+        <v>3</v>
+      </c>
+      <c r="F4" t="n">
+        <v>3</v>
+      </c>
+      <c r="G4" t="n">
+        <v>3</v>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+      <c r="I4" t="n">
+        <v>3</v>
+      </c>
+      <c r="J4" t="n">
+        <v>3</v>
+      </c>
+      <c r="K4" t="n">
+        <v>3</v>
+      </c>
+      <c r="L4" t="n">
+        <v>3</v>
+      </c>
+      <c r="M4" t="n">
+        <v>3</v>
+      </c>
+      <c r="N4" t="n">
+        <v>3</v>
+      </c>
+      <c r="O4" t="n">
+        <v>3</v>
+      </c>
+      <c r="P4" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>3</v>
+      </c>
+      <c r="R4" t="n">
+        <v>3</v>
+      </c>
+      <c r="S4" t="n">
+        <v>3</v>
+      </c>
+      <c r="T4" t="n">
+        <v>3</v>
+      </c>
+      <c r="U4" t="n">
+        <v>3</v>
+      </c>
+      <c r="V4" t="n">
+        <v>3</v>
+      </c>
+      <c r="W4" t="n">
+        <v>3</v>
+      </c>
+      <c r="X4" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -631,6 +702,78 @@
           <t>5/7/2020</t>
         </is>
       </c>
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="n">
+        <v>3</v>
+      </c>
+      <c r="E5" t="n">
+        <v>3</v>
+      </c>
+      <c r="F5" t="n">
+        <v>3</v>
+      </c>
+      <c r="G5" t="n">
+        <v>3</v>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+      <c r="I5" t="n">
+        <v>3</v>
+      </c>
+      <c r="J5" t="n">
+        <v>3</v>
+      </c>
+      <c r="K5" t="n">
+        <v>3</v>
+      </c>
+      <c r="L5" t="n">
+        <v>3</v>
+      </c>
+      <c r="M5" t="n">
+        <v>3</v>
+      </c>
+      <c r="N5" t="n">
+        <v>3</v>
+      </c>
+      <c r="O5" t="n">
+        <v>3</v>
+      </c>
+      <c r="P5" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>3</v>
+      </c>
+      <c r="R5" t="n">
+        <v>3</v>
+      </c>
+      <c r="S5" t="n">
+        <v>3</v>
+      </c>
+      <c r="T5" t="n">
+        <v>3</v>
+      </c>
+      <c r="U5" t="n">
+        <v>3</v>
+      </c>
+      <c r="V5" t="n">
+        <v>3</v>
+      </c>
+      <c r="W5" t="n">
+        <v>3</v>
+      </c>
+      <c r="X5" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -638,6 +781,78 @@
           <t>5/8/2020</t>
         </is>
       </c>
+      <c r="B6" t="n">
+        <v>3</v>
+      </c>
+      <c r="C6" t="n">
+        <v>3</v>
+      </c>
+      <c r="D6" t="n">
+        <v>3</v>
+      </c>
+      <c r="E6" t="n">
+        <v>3</v>
+      </c>
+      <c r="F6" t="n">
+        <v>3</v>
+      </c>
+      <c r="G6" t="n">
+        <v>3</v>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+      <c r="I6" t="n">
+        <v>3</v>
+      </c>
+      <c r="J6" t="n">
+        <v>3</v>
+      </c>
+      <c r="K6" t="n">
+        <v>3</v>
+      </c>
+      <c r="L6" t="n">
+        <v>3</v>
+      </c>
+      <c r="M6" t="n">
+        <v>3</v>
+      </c>
+      <c r="N6" t="n">
+        <v>3</v>
+      </c>
+      <c r="O6" t="n">
+        <v>3</v>
+      </c>
+      <c r="P6" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>3</v>
+      </c>
+      <c r="R6" t="n">
+        <v>3</v>
+      </c>
+      <c r="S6" t="n">
+        <v>3</v>
+      </c>
+      <c r="T6" t="n">
+        <v>3</v>
+      </c>
+      <c r="U6" t="n">
+        <v>3</v>
+      </c>
+      <c r="V6" t="n">
+        <v>3</v>
+      </c>
+      <c r="W6" t="n">
+        <v>3</v>
+      </c>
+      <c r="X6" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -645,6 +860,78 @@
           <t>5/9/2020</t>
         </is>
       </c>
+      <c r="B7" t="n">
+        <v>3</v>
+      </c>
+      <c r="C7" t="n">
+        <v>3</v>
+      </c>
+      <c r="D7" t="n">
+        <v>3</v>
+      </c>
+      <c r="E7" t="n">
+        <v>3</v>
+      </c>
+      <c r="F7" t="n">
+        <v>3</v>
+      </c>
+      <c r="G7" t="n">
+        <v>3</v>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+      <c r="I7" t="n">
+        <v>3</v>
+      </c>
+      <c r="J7" t="n">
+        <v>3</v>
+      </c>
+      <c r="K7" t="n">
+        <v>3</v>
+      </c>
+      <c r="L7" t="n">
+        <v>3</v>
+      </c>
+      <c r="M7" t="n">
+        <v>3</v>
+      </c>
+      <c r="N7" t="n">
+        <v>3</v>
+      </c>
+      <c r="O7" t="n">
+        <v>3</v>
+      </c>
+      <c r="P7" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>3</v>
+      </c>
+      <c r="R7" t="n">
+        <v>3</v>
+      </c>
+      <c r="S7" t="n">
+        <v>3</v>
+      </c>
+      <c r="T7" t="n">
+        <v>3</v>
+      </c>
+      <c r="U7" t="n">
+        <v>3</v>
+      </c>
+      <c r="V7" t="n">
+        <v>3</v>
+      </c>
+      <c r="W7" t="n">
+        <v>3</v>
+      </c>
+      <c r="X7" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -652,6 +939,78 @@
           <t>5/10/2020</t>
         </is>
       </c>
+      <c r="B8" t="n">
+        <v>3</v>
+      </c>
+      <c r="C8" t="n">
+        <v>3</v>
+      </c>
+      <c r="D8" t="n">
+        <v>3</v>
+      </c>
+      <c r="E8" t="n">
+        <v>3</v>
+      </c>
+      <c r="F8" t="n">
+        <v>3</v>
+      </c>
+      <c r="G8" t="n">
+        <v>3</v>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+      <c r="I8" t="n">
+        <v>3</v>
+      </c>
+      <c r="J8" t="n">
+        <v>3</v>
+      </c>
+      <c r="K8" t="n">
+        <v>3</v>
+      </c>
+      <c r="L8" t="n">
+        <v>3</v>
+      </c>
+      <c r="M8" t="n">
+        <v>3</v>
+      </c>
+      <c r="N8" t="n">
+        <v>3</v>
+      </c>
+      <c r="O8" t="n">
+        <v>3</v>
+      </c>
+      <c r="P8" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>3</v>
+      </c>
+      <c r="R8" t="n">
+        <v>3</v>
+      </c>
+      <c r="S8" t="n">
+        <v>3</v>
+      </c>
+      <c r="T8" t="n">
+        <v>3</v>
+      </c>
+      <c r="U8" t="n">
+        <v>3</v>
+      </c>
+      <c r="V8" t="n">
+        <v>3</v>
+      </c>
+      <c r="W8" t="n">
+        <v>3</v>
+      </c>
+      <c r="X8" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -659,6 +1018,78 @@
           <t>5/11/2020</t>
         </is>
       </c>
+      <c r="B9" t="n">
+        <v>3</v>
+      </c>
+      <c r="C9" t="n">
+        <v>3</v>
+      </c>
+      <c r="D9" t="n">
+        <v>3</v>
+      </c>
+      <c r="E9" t="n">
+        <v>3</v>
+      </c>
+      <c r="F9" t="n">
+        <v>3</v>
+      </c>
+      <c r="G9" t="n">
+        <v>3</v>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+      <c r="I9" t="n">
+        <v>3</v>
+      </c>
+      <c r="J9" t="n">
+        <v>3</v>
+      </c>
+      <c r="K9" t="n">
+        <v>3</v>
+      </c>
+      <c r="L9" t="n">
+        <v>3</v>
+      </c>
+      <c r="M9" t="n">
+        <v>3</v>
+      </c>
+      <c r="N9" t="n">
+        <v>3</v>
+      </c>
+      <c r="O9" t="n">
+        <v>3</v>
+      </c>
+      <c r="P9" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>3</v>
+      </c>
+      <c r="R9" t="n">
+        <v>3</v>
+      </c>
+      <c r="S9" t="n">
+        <v>3</v>
+      </c>
+      <c r="T9" t="n">
+        <v>3</v>
+      </c>
+      <c r="U9" t="n">
+        <v>3</v>
+      </c>
+      <c r="V9" t="n">
+        <v>3</v>
+      </c>
+      <c r="W9" t="n">
+        <v>3</v>
+      </c>
+      <c r="X9" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -666,6 +1097,78 @@
           <t>5/12/2020</t>
         </is>
       </c>
+      <c r="B10" t="n">
+        <v>3</v>
+      </c>
+      <c r="C10" t="n">
+        <v>3</v>
+      </c>
+      <c r="D10" t="n">
+        <v>3</v>
+      </c>
+      <c r="E10" t="n">
+        <v>3</v>
+      </c>
+      <c r="F10" t="n">
+        <v>3</v>
+      </c>
+      <c r="G10" t="n">
+        <v>3</v>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+      <c r="I10" t="n">
+        <v>3</v>
+      </c>
+      <c r="J10" t="n">
+        <v>3</v>
+      </c>
+      <c r="K10" t="n">
+        <v>3</v>
+      </c>
+      <c r="L10" t="n">
+        <v>3</v>
+      </c>
+      <c r="M10" t="n">
+        <v>3</v>
+      </c>
+      <c r="N10" t="n">
+        <v>3</v>
+      </c>
+      <c r="O10" t="n">
+        <v>3</v>
+      </c>
+      <c r="P10" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>3</v>
+      </c>
+      <c r="R10" t="n">
+        <v>3</v>
+      </c>
+      <c r="S10" t="n">
+        <v>3</v>
+      </c>
+      <c r="T10" t="n">
+        <v>3</v>
+      </c>
+      <c r="U10" t="n">
+        <v>3</v>
+      </c>
+      <c r="V10" t="n">
+        <v>3</v>
+      </c>
+      <c r="W10" t="n">
+        <v>3</v>
+      </c>
+      <c r="X10" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -673,6 +1176,78 @@
           <t>5/13/2020</t>
         </is>
       </c>
+      <c r="B11" t="n">
+        <v>3</v>
+      </c>
+      <c r="C11" t="n">
+        <v>3</v>
+      </c>
+      <c r="D11" t="n">
+        <v>3</v>
+      </c>
+      <c r="E11" t="n">
+        <v>3</v>
+      </c>
+      <c r="F11" t="n">
+        <v>3</v>
+      </c>
+      <c r="G11" t="n">
+        <v>3</v>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+      <c r="I11" t="n">
+        <v>3</v>
+      </c>
+      <c r="J11" t="n">
+        <v>3</v>
+      </c>
+      <c r="K11" t="n">
+        <v>3</v>
+      </c>
+      <c r="L11" t="n">
+        <v>3</v>
+      </c>
+      <c r="M11" t="n">
+        <v>3</v>
+      </c>
+      <c r="N11" t="n">
+        <v>3</v>
+      </c>
+      <c r="O11" t="n">
+        <v>3</v>
+      </c>
+      <c r="P11" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>3</v>
+      </c>
+      <c r="R11" t="n">
+        <v>3</v>
+      </c>
+      <c r="S11" t="n">
+        <v>3</v>
+      </c>
+      <c r="T11" t="n">
+        <v>3</v>
+      </c>
+      <c r="U11" t="n">
+        <v>3</v>
+      </c>
+      <c r="V11" t="n">
+        <v>3</v>
+      </c>
+      <c r="W11" t="n">
+        <v>3</v>
+      </c>
+      <c r="X11" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -680,6 +1255,78 @@
           <t>5/14/2020</t>
         </is>
       </c>
+      <c r="B12" t="n">
+        <v>3</v>
+      </c>
+      <c r="C12" t="n">
+        <v>3</v>
+      </c>
+      <c r="D12" t="n">
+        <v>3</v>
+      </c>
+      <c r="E12" t="n">
+        <v>3</v>
+      </c>
+      <c r="F12" t="n">
+        <v>3</v>
+      </c>
+      <c r="G12" t="n">
+        <v>3</v>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+      <c r="I12" t="n">
+        <v>3</v>
+      </c>
+      <c r="J12" t="n">
+        <v>3</v>
+      </c>
+      <c r="K12" t="n">
+        <v>3</v>
+      </c>
+      <c r="L12" t="n">
+        <v>3</v>
+      </c>
+      <c r="M12" t="n">
+        <v>3</v>
+      </c>
+      <c r="N12" t="n">
+        <v>3</v>
+      </c>
+      <c r="O12" t="n">
+        <v>3</v>
+      </c>
+      <c r="P12" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>3</v>
+      </c>
+      <c r="R12" t="n">
+        <v>3</v>
+      </c>
+      <c r="S12" t="n">
+        <v>3</v>
+      </c>
+      <c r="T12" t="n">
+        <v>3</v>
+      </c>
+      <c r="U12" t="n">
+        <v>3</v>
+      </c>
+      <c r="V12" t="n">
+        <v>3</v>
+      </c>
+      <c r="W12" t="n">
+        <v>3</v>
+      </c>
+      <c r="X12" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -687,6 +1334,78 @@
           <t>5/15/2020</t>
         </is>
       </c>
+      <c r="B13" t="n">
+        <v>3</v>
+      </c>
+      <c r="C13" t="n">
+        <v>3</v>
+      </c>
+      <c r="D13" t="n">
+        <v>3</v>
+      </c>
+      <c r="E13" t="n">
+        <v>3</v>
+      </c>
+      <c r="F13" t="n">
+        <v>3</v>
+      </c>
+      <c r="G13" t="n">
+        <v>3</v>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+      <c r="I13" t="n">
+        <v>3</v>
+      </c>
+      <c r="J13" t="n">
+        <v>3</v>
+      </c>
+      <c r="K13" t="n">
+        <v>3</v>
+      </c>
+      <c r="L13" t="n">
+        <v>3</v>
+      </c>
+      <c r="M13" t="n">
+        <v>3</v>
+      </c>
+      <c r="N13" t="n">
+        <v>3</v>
+      </c>
+      <c r="O13" t="n">
+        <v>3</v>
+      </c>
+      <c r="P13" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>3</v>
+      </c>
+      <c r="R13" t="n">
+        <v>3</v>
+      </c>
+      <c r="S13" t="n">
+        <v>3</v>
+      </c>
+      <c r="T13" t="n">
+        <v>3</v>
+      </c>
+      <c r="U13" t="n">
+        <v>3</v>
+      </c>
+      <c r="V13" t="n">
+        <v>3</v>
+      </c>
+      <c r="W13" t="n">
+        <v>3</v>
+      </c>
+      <c r="X13" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -694,6 +1413,78 @@
           <t>5/16/2020</t>
         </is>
       </c>
+      <c r="B14" t="n">
+        <v>3</v>
+      </c>
+      <c r="C14" t="n">
+        <v>3</v>
+      </c>
+      <c r="D14" t="n">
+        <v>3</v>
+      </c>
+      <c r="E14" t="n">
+        <v>3</v>
+      </c>
+      <c r="F14" t="n">
+        <v>3</v>
+      </c>
+      <c r="G14" t="n">
+        <v>3</v>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+      <c r="I14" t="n">
+        <v>3</v>
+      </c>
+      <c r="J14" t="n">
+        <v>3</v>
+      </c>
+      <c r="K14" t="n">
+        <v>3</v>
+      </c>
+      <c r="L14" t="n">
+        <v>3</v>
+      </c>
+      <c r="M14" t="n">
+        <v>3</v>
+      </c>
+      <c r="N14" t="n">
+        <v>3</v>
+      </c>
+      <c r="O14" t="n">
+        <v>3</v>
+      </c>
+      <c r="P14" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>3</v>
+      </c>
+      <c r="R14" t="n">
+        <v>3</v>
+      </c>
+      <c r="S14" t="n">
+        <v>3</v>
+      </c>
+      <c r="T14" t="n">
+        <v>3</v>
+      </c>
+      <c r="U14" t="n">
+        <v>3</v>
+      </c>
+      <c r="V14" t="n">
+        <v>3</v>
+      </c>
+      <c r="W14" t="n">
+        <v>3</v>
+      </c>
+      <c r="X14" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -701,6 +1492,78 @@
           <t>5/17/2020</t>
         </is>
       </c>
+      <c r="B15" t="n">
+        <v>3</v>
+      </c>
+      <c r="C15" t="n">
+        <v>3</v>
+      </c>
+      <c r="D15" t="n">
+        <v>3</v>
+      </c>
+      <c r="E15" t="n">
+        <v>3</v>
+      </c>
+      <c r="F15" t="n">
+        <v>3</v>
+      </c>
+      <c r="G15" t="n">
+        <v>3</v>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+      <c r="I15" t="n">
+        <v>3</v>
+      </c>
+      <c r="J15" t="n">
+        <v>3</v>
+      </c>
+      <c r="K15" t="n">
+        <v>3</v>
+      </c>
+      <c r="L15" t="n">
+        <v>3</v>
+      </c>
+      <c r="M15" t="n">
+        <v>3</v>
+      </c>
+      <c r="N15" t="n">
+        <v>3</v>
+      </c>
+      <c r="O15" t="n">
+        <v>3</v>
+      </c>
+      <c r="P15" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>3</v>
+      </c>
+      <c r="R15" t="n">
+        <v>3</v>
+      </c>
+      <c r="S15" t="n">
+        <v>3</v>
+      </c>
+      <c r="T15" t="n">
+        <v>3</v>
+      </c>
+      <c r="U15" t="n">
+        <v>3</v>
+      </c>
+      <c r="V15" t="n">
+        <v>3</v>
+      </c>
+      <c r="W15" t="n">
+        <v>3</v>
+      </c>
+      <c r="X15" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -708,6 +1571,78 @@
           <t>5/18/2020</t>
         </is>
       </c>
+      <c r="B16" t="n">
+        <v>3</v>
+      </c>
+      <c r="C16" t="n">
+        <v>3</v>
+      </c>
+      <c r="D16" t="n">
+        <v>3</v>
+      </c>
+      <c r="E16" t="n">
+        <v>3</v>
+      </c>
+      <c r="F16" t="n">
+        <v>3</v>
+      </c>
+      <c r="G16" t="n">
+        <v>3</v>
+      </c>
+      <c r="H16" t="n">
+        <v>3</v>
+      </c>
+      <c r="I16" t="n">
+        <v>3</v>
+      </c>
+      <c r="J16" t="n">
+        <v>3</v>
+      </c>
+      <c r="K16" t="n">
+        <v>3</v>
+      </c>
+      <c r="L16" t="n">
+        <v>3</v>
+      </c>
+      <c r="M16" t="n">
+        <v>3</v>
+      </c>
+      <c r="N16" t="n">
+        <v>3</v>
+      </c>
+      <c r="O16" t="n">
+        <v>3</v>
+      </c>
+      <c r="P16" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>3</v>
+      </c>
+      <c r="R16" t="n">
+        <v>3</v>
+      </c>
+      <c r="S16" t="n">
+        <v>3</v>
+      </c>
+      <c r="T16" t="n">
+        <v>3</v>
+      </c>
+      <c r="U16" t="n">
+        <v>3</v>
+      </c>
+      <c r="V16" t="n">
+        <v>3</v>
+      </c>
+      <c r="W16" t="n">
+        <v>3</v>
+      </c>
+      <c r="X16" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -715,6 +1650,78 @@
           <t>5/19/2020</t>
         </is>
       </c>
+      <c r="B17" t="n">
+        <v>3</v>
+      </c>
+      <c r="C17" t="n">
+        <v>3</v>
+      </c>
+      <c r="D17" t="n">
+        <v>3</v>
+      </c>
+      <c r="E17" t="n">
+        <v>3</v>
+      </c>
+      <c r="F17" t="n">
+        <v>3</v>
+      </c>
+      <c r="G17" t="n">
+        <v>3</v>
+      </c>
+      <c r="H17" t="n">
+        <v>3</v>
+      </c>
+      <c r="I17" t="n">
+        <v>3</v>
+      </c>
+      <c r="J17" t="n">
+        <v>3</v>
+      </c>
+      <c r="K17" t="n">
+        <v>3</v>
+      </c>
+      <c r="L17" t="n">
+        <v>3</v>
+      </c>
+      <c r="M17" t="n">
+        <v>3</v>
+      </c>
+      <c r="N17" t="n">
+        <v>3</v>
+      </c>
+      <c r="O17" t="n">
+        <v>3</v>
+      </c>
+      <c r="P17" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>3</v>
+      </c>
+      <c r="R17" t="n">
+        <v>3</v>
+      </c>
+      <c r="S17" t="n">
+        <v>3</v>
+      </c>
+      <c r="T17" t="n">
+        <v>3</v>
+      </c>
+      <c r="U17" t="n">
+        <v>3</v>
+      </c>
+      <c r="V17" t="n">
+        <v>3</v>
+      </c>
+      <c r="W17" t="n">
+        <v>3</v>
+      </c>
+      <c r="X17" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -722,6 +1729,78 @@
           <t>5/20/2020</t>
         </is>
       </c>
+      <c r="B18" t="n">
+        <v>3</v>
+      </c>
+      <c r="C18" t="n">
+        <v>3</v>
+      </c>
+      <c r="D18" t="n">
+        <v>3</v>
+      </c>
+      <c r="E18" t="n">
+        <v>3</v>
+      </c>
+      <c r="F18" t="n">
+        <v>3</v>
+      </c>
+      <c r="G18" t="n">
+        <v>3</v>
+      </c>
+      <c r="H18" t="n">
+        <v>3</v>
+      </c>
+      <c r="I18" t="n">
+        <v>3</v>
+      </c>
+      <c r="J18" t="n">
+        <v>3</v>
+      </c>
+      <c r="K18" t="n">
+        <v>3</v>
+      </c>
+      <c r="L18" t="n">
+        <v>3</v>
+      </c>
+      <c r="M18" t="n">
+        <v>3</v>
+      </c>
+      <c r="N18" t="n">
+        <v>3</v>
+      </c>
+      <c r="O18" t="n">
+        <v>3</v>
+      </c>
+      <c r="P18" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>3</v>
+      </c>
+      <c r="R18" t="n">
+        <v>3</v>
+      </c>
+      <c r="S18" t="n">
+        <v>3</v>
+      </c>
+      <c r="T18" t="n">
+        <v>3</v>
+      </c>
+      <c r="U18" t="n">
+        <v>3</v>
+      </c>
+      <c r="V18" t="n">
+        <v>3</v>
+      </c>
+      <c r="W18" t="n">
+        <v>3</v>
+      </c>
+      <c r="X18" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -729,6 +1808,78 @@
           <t>5/21/2020</t>
         </is>
       </c>
+      <c r="B19" t="n">
+        <v>3</v>
+      </c>
+      <c r="C19" t="n">
+        <v>3</v>
+      </c>
+      <c r="D19" t="n">
+        <v>3</v>
+      </c>
+      <c r="E19" t="n">
+        <v>3</v>
+      </c>
+      <c r="F19" t="n">
+        <v>3</v>
+      </c>
+      <c r="G19" t="n">
+        <v>3</v>
+      </c>
+      <c r="H19" t="n">
+        <v>3</v>
+      </c>
+      <c r="I19" t="n">
+        <v>3</v>
+      </c>
+      <c r="J19" t="n">
+        <v>3</v>
+      </c>
+      <c r="K19" t="n">
+        <v>3</v>
+      </c>
+      <c r="L19" t="n">
+        <v>3</v>
+      </c>
+      <c r="M19" t="n">
+        <v>3</v>
+      </c>
+      <c r="N19" t="n">
+        <v>3</v>
+      </c>
+      <c r="O19" t="n">
+        <v>3</v>
+      </c>
+      <c r="P19" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>3</v>
+      </c>
+      <c r="R19" t="n">
+        <v>3</v>
+      </c>
+      <c r="S19" t="n">
+        <v>3</v>
+      </c>
+      <c r="T19" t="n">
+        <v>3</v>
+      </c>
+      <c r="U19" t="n">
+        <v>3</v>
+      </c>
+      <c r="V19" t="n">
+        <v>3</v>
+      </c>
+      <c r="W19" t="n">
+        <v>3</v>
+      </c>
+      <c r="X19" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -736,6 +1887,78 @@
           <t>5/22/2020</t>
         </is>
       </c>
+      <c r="B20" t="n">
+        <v>3</v>
+      </c>
+      <c r="C20" t="n">
+        <v>3</v>
+      </c>
+      <c r="D20" t="n">
+        <v>3</v>
+      </c>
+      <c r="E20" t="n">
+        <v>3</v>
+      </c>
+      <c r="F20" t="n">
+        <v>3</v>
+      </c>
+      <c r="G20" t="n">
+        <v>3</v>
+      </c>
+      <c r="H20" t="n">
+        <v>3</v>
+      </c>
+      <c r="I20" t="n">
+        <v>3</v>
+      </c>
+      <c r="J20" t="n">
+        <v>3</v>
+      </c>
+      <c r="K20" t="n">
+        <v>3</v>
+      </c>
+      <c r="L20" t="n">
+        <v>3</v>
+      </c>
+      <c r="M20" t="n">
+        <v>3</v>
+      </c>
+      <c r="N20" t="n">
+        <v>3</v>
+      </c>
+      <c r="O20" t="n">
+        <v>3</v>
+      </c>
+      <c r="P20" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>3</v>
+      </c>
+      <c r="R20" t="n">
+        <v>3</v>
+      </c>
+      <c r="S20" t="n">
+        <v>3</v>
+      </c>
+      <c r="T20" t="n">
+        <v>3</v>
+      </c>
+      <c r="U20" t="n">
+        <v>3</v>
+      </c>
+      <c r="V20" t="n">
+        <v>3</v>
+      </c>
+      <c r="W20" t="n">
+        <v>3</v>
+      </c>
+      <c r="X20" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -743,6 +1966,78 @@
           <t>5/23/2020</t>
         </is>
       </c>
+      <c r="B21" t="n">
+        <v>3</v>
+      </c>
+      <c r="C21" t="n">
+        <v>3</v>
+      </c>
+      <c r="D21" t="n">
+        <v>3</v>
+      </c>
+      <c r="E21" t="n">
+        <v>3</v>
+      </c>
+      <c r="F21" t="n">
+        <v>3</v>
+      </c>
+      <c r="G21" t="n">
+        <v>3</v>
+      </c>
+      <c r="H21" t="n">
+        <v>3</v>
+      </c>
+      <c r="I21" t="n">
+        <v>3</v>
+      </c>
+      <c r="J21" t="n">
+        <v>3</v>
+      </c>
+      <c r="K21" t="n">
+        <v>3</v>
+      </c>
+      <c r="L21" t="n">
+        <v>3</v>
+      </c>
+      <c r="M21" t="n">
+        <v>3</v>
+      </c>
+      <c r="N21" t="n">
+        <v>3</v>
+      </c>
+      <c r="O21" t="n">
+        <v>3</v>
+      </c>
+      <c r="P21" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>3</v>
+      </c>
+      <c r="R21" t="n">
+        <v>3</v>
+      </c>
+      <c r="S21" t="n">
+        <v>3</v>
+      </c>
+      <c r="T21" t="n">
+        <v>3</v>
+      </c>
+      <c r="U21" t="n">
+        <v>3</v>
+      </c>
+      <c r="V21" t="n">
+        <v>3</v>
+      </c>
+      <c r="W21" t="n">
+        <v>3</v>
+      </c>
+      <c r="X21" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -750,6 +2045,78 @@
           <t>5/24/2020</t>
         </is>
       </c>
+      <c r="B22" t="n">
+        <v>3</v>
+      </c>
+      <c r="C22" t="n">
+        <v>3</v>
+      </c>
+      <c r="D22" t="n">
+        <v>3</v>
+      </c>
+      <c r="E22" t="n">
+        <v>3</v>
+      </c>
+      <c r="F22" t="n">
+        <v>3</v>
+      </c>
+      <c r="G22" t="n">
+        <v>3</v>
+      </c>
+      <c r="H22" t="n">
+        <v>3</v>
+      </c>
+      <c r="I22" t="n">
+        <v>3</v>
+      </c>
+      <c r="J22" t="n">
+        <v>3</v>
+      </c>
+      <c r="K22" t="n">
+        <v>3</v>
+      </c>
+      <c r="L22" t="n">
+        <v>3</v>
+      </c>
+      <c r="M22" t="n">
+        <v>3</v>
+      </c>
+      <c r="N22" t="n">
+        <v>3</v>
+      </c>
+      <c r="O22" t="n">
+        <v>3</v>
+      </c>
+      <c r="P22" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>3</v>
+      </c>
+      <c r="R22" t="n">
+        <v>3</v>
+      </c>
+      <c r="S22" t="n">
+        <v>3</v>
+      </c>
+      <c r="T22" t="n">
+        <v>3</v>
+      </c>
+      <c r="U22" t="n">
+        <v>3</v>
+      </c>
+      <c r="V22" t="n">
+        <v>3</v>
+      </c>
+      <c r="W22" t="n">
+        <v>3</v>
+      </c>
+      <c r="X22" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -757,6 +2124,78 @@
           <t>5/25/2020</t>
         </is>
       </c>
+      <c r="B23" t="n">
+        <v>3</v>
+      </c>
+      <c r="C23" t="n">
+        <v>3</v>
+      </c>
+      <c r="D23" t="n">
+        <v>3</v>
+      </c>
+      <c r="E23" t="n">
+        <v>3</v>
+      </c>
+      <c r="F23" t="n">
+        <v>3</v>
+      </c>
+      <c r="G23" t="n">
+        <v>3</v>
+      </c>
+      <c r="H23" t="n">
+        <v>3</v>
+      </c>
+      <c r="I23" t="n">
+        <v>3</v>
+      </c>
+      <c r="J23" t="n">
+        <v>3</v>
+      </c>
+      <c r="K23" t="n">
+        <v>3</v>
+      </c>
+      <c r="L23" t="n">
+        <v>3</v>
+      </c>
+      <c r="M23" t="n">
+        <v>3</v>
+      </c>
+      <c r="N23" t="n">
+        <v>3</v>
+      </c>
+      <c r="O23" t="n">
+        <v>3</v>
+      </c>
+      <c r="P23" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>3</v>
+      </c>
+      <c r="R23" t="n">
+        <v>3</v>
+      </c>
+      <c r="S23" t="n">
+        <v>3</v>
+      </c>
+      <c r="T23" t="n">
+        <v>3</v>
+      </c>
+      <c r="U23" t="n">
+        <v>3</v>
+      </c>
+      <c r="V23" t="n">
+        <v>3</v>
+      </c>
+      <c r="W23" t="n">
+        <v>3</v>
+      </c>
+      <c r="X23" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
@@ -764,6 +2203,78 @@
           <t>5/26/2020</t>
         </is>
       </c>
+      <c r="B24" t="n">
+        <v>3</v>
+      </c>
+      <c r="C24" t="n">
+        <v>3</v>
+      </c>
+      <c r="D24" t="n">
+        <v>3</v>
+      </c>
+      <c r="E24" t="n">
+        <v>3</v>
+      </c>
+      <c r="F24" t="n">
+        <v>3</v>
+      </c>
+      <c r="G24" t="n">
+        <v>3</v>
+      </c>
+      <c r="H24" t="n">
+        <v>3</v>
+      </c>
+      <c r="I24" t="n">
+        <v>3</v>
+      </c>
+      <c r="J24" t="n">
+        <v>3</v>
+      </c>
+      <c r="K24" t="n">
+        <v>3</v>
+      </c>
+      <c r="L24" t="n">
+        <v>3</v>
+      </c>
+      <c r="M24" t="n">
+        <v>3</v>
+      </c>
+      <c r="N24" t="n">
+        <v>3</v>
+      </c>
+      <c r="O24" t="n">
+        <v>3</v>
+      </c>
+      <c r="P24" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>3</v>
+      </c>
+      <c r="R24" t="n">
+        <v>3</v>
+      </c>
+      <c r="S24" t="n">
+        <v>3</v>
+      </c>
+      <c r="T24" t="n">
+        <v>3</v>
+      </c>
+      <c r="U24" t="n">
+        <v>3</v>
+      </c>
+      <c r="V24" t="n">
+        <v>3</v>
+      </c>
+      <c r="W24" t="n">
+        <v>3</v>
+      </c>
+      <c r="X24" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
@@ -771,12 +2282,156 @@
           <t>5/27/2020</t>
         </is>
       </c>
+      <c r="B25" t="n">
+        <v>3</v>
+      </c>
+      <c r="C25" t="n">
+        <v>3</v>
+      </c>
+      <c r="D25" t="n">
+        <v>3</v>
+      </c>
+      <c r="E25" t="n">
+        <v>3</v>
+      </c>
+      <c r="F25" t="n">
+        <v>3</v>
+      </c>
+      <c r="G25" t="n">
+        <v>3</v>
+      </c>
+      <c r="H25" t="n">
+        <v>3</v>
+      </c>
+      <c r="I25" t="n">
+        <v>3</v>
+      </c>
+      <c r="J25" t="n">
+        <v>3</v>
+      </c>
+      <c r="K25" t="n">
+        <v>3</v>
+      </c>
+      <c r="L25" t="n">
+        <v>3</v>
+      </c>
+      <c r="M25" t="n">
+        <v>3</v>
+      </c>
+      <c r="N25" t="n">
+        <v>3</v>
+      </c>
+      <c r="O25" t="n">
+        <v>3</v>
+      </c>
+      <c r="P25" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>3</v>
+      </c>
+      <c r="R25" t="n">
+        <v>3</v>
+      </c>
+      <c r="S25" t="n">
+        <v>3</v>
+      </c>
+      <c r="T25" t="n">
+        <v>3</v>
+      </c>
+      <c r="U25" t="n">
+        <v>3</v>
+      </c>
+      <c r="V25" t="n">
+        <v>3</v>
+      </c>
+      <c r="W25" t="n">
+        <v>3</v>
+      </c>
+      <c r="X25" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
           <t>5/28/2020</t>
         </is>
+      </c>
+      <c r="B26" t="n">
+        <v>7</v>
+      </c>
+      <c r="C26" t="n">
+        <v>7</v>
+      </c>
+      <c r="D26" t="n">
+        <v>7</v>
+      </c>
+      <c r="E26" t="n">
+        <v>7</v>
+      </c>
+      <c r="F26" t="n">
+        <v>7</v>
+      </c>
+      <c r="G26" t="n">
+        <v>7</v>
+      </c>
+      <c r="H26" t="n">
+        <v>7</v>
+      </c>
+      <c r="I26" t="n">
+        <v>7</v>
+      </c>
+      <c r="J26" t="n">
+        <v>7</v>
+      </c>
+      <c r="K26" t="n">
+        <v>7</v>
+      </c>
+      <c r="L26" t="n">
+        <v>7</v>
+      </c>
+      <c r="M26" t="n">
+        <v>7</v>
+      </c>
+      <c r="N26" t="n">
+        <v>7</v>
+      </c>
+      <c r="O26" t="n">
+        <v>7</v>
+      </c>
+      <c r="P26" t="n">
+        <v>7</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>7</v>
+      </c>
+      <c r="R26" t="n">
+        <v>7</v>
+      </c>
+      <c r="S26" t="n">
+        <v>7</v>
+      </c>
+      <c r="T26" t="n">
+        <v>7</v>
+      </c>
+      <c r="U26" t="n">
+        <v>7</v>
+      </c>
+      <c r="V26" t="n">
+        <v>7</v>
+      </c>
+      <c r="W26" t="n">
+        <v>7</v>
+      </c>
+      <c r="X26" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="27">
@@ -6974,136 +8629,135 @@
   <dimension ref="A1:Z909"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Z3" sqref="Z3"/>
+      <selection activeCell="AA23" sqref="AA23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="10.7109375" bestFit="1" customWidth="1" min="1" max="1"/>
-    <col width="9.7109375" bestFit="1" customWidth="1" min="2" max="10"/>
-    <col width="10.7109375" bestFit="1" customWidth="1" min="11" max="25"/>
+    <col width="5.7109375" customWidth="1" min="2" max="25"/>
     <col width="9.7109375" bestFit="1" customWidth="1" min="26" max="26"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="B1" t="inlineStr">
         <is>
-          <t>Lottery #1</t>
+          <t>#1</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>Lottery #2</t>
+          <t>#2</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>Lottery #3</t>
+          <t>#3</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>Lottery #4</t>
+          <t>#4</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>Lottery #5</t>
+          <t>#5</t>
         </is>
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t>Lottery #6</t>
+          <t>#6</t>
         </is>
       </c>
       <c r="H1" t="inlineStr">
         <is>
-          <t>Lottery #7</t>
+          <t>#7</t>
         </is>
       </c>
       <c r="I1" t="inlineStr">
         <is>
-          <t>Lottery #8</t>
+          <t>#8</t>
         </is>
       </c>
       <c r="J1" t="inlineStr">
         <is>
-          <t>Lottery #9</t>
+          <t>#9</t>
         </is>
       </c>
       <c r="K1" t="inlineStr">
         <is>
-          <t>Lottery #10</t>
+          <t>#10</t>
         </is>
       </c>
       <c r="L1" t="inlineStr">
         <is>
-          <t>Lottery #11</t>
+          <t>#11</t>
         </is>
       </c>
       <c r="M1" t="inlineStr">
         <is>
-          <t>Lottery #12</t>
+          <t>#12</t>
         </is>
       </c>
       <c r="N1" t="inlineStr">
         <is>
-          <t>Lottery #13</t>
+          <t>#13</t>
         </is>
       </c>
       <c r="O1" t="inlineStr">
         <is>
-          <t>Lottery #14</t>
+          <t>#14</t>
         </is>
       </c>
       <c r="P1" t="inlineStr">
         <is>
-          <t>Lottery #15</t>
+          <t>#15</t>
         </is>
       </c>
       <c r="Q1" t="inlineStr">
         <is>
-          <t>Lottery #16</t>
+          <t>#16</t>
         </is>
       </c>
       <c r="R1" t="inlineStr">
         <is>
-          <t>Lottery #17</t>
+          <t>#17</t>
         </is>
       </c>
       <c r="S1" t="inlineStr">
         <is>
-          <t>Lottery #18</t>
+          <t>#18</t>
         </is>
       </c>
       <c r="T1" t="inlineStr">
         <is>
-          <t>Lottery #19</t>
+          <t>#19</t>
         </is>
       </c>
       <c r="U1" t="inlineStr">
         <is>
-          <t>Lottery #20</t>
+          <t>#20</t>
         </is>
       </c>
       <c r="V1" t="inlineStr">
         <is>
-          <t>Lottery #21</t>
+          <t>#21</t>
         </is>
       </c>
       <c r="W1" t="inlineStr">
         <is>
-          <t>Lottery #22</t>
+          <t>#22</t>
         </is>
       </c>
       <c r="X1" t="inlineStr">
         <is>
-          <t>Lottery #23</t>
+          <t>#23</t>
         </is>
       </c>
       <c r="Y1" t="inlineStr">
         <is>
-          <t>Lottery #24</t>
+          <t>#24</t>
         </is>
       </c>
       <c r="Z1" t="inlineStr">
@@ -7279,6 +8933,81 @@
           <t>5/6/2020</t>
         </is>
       </c>
+      <c r="B4" t="n">
+        <v>3</v>
+      </c>
+      <c r="C4" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="n">
+        <v>3</v>
+      </c>
+      <c r="F4" t="n">
+        <v>3</v>
+      </c>
+      <c r="G4" t="n">
+        <v>3</v>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+      <c r="I4" t="n">
+        <v>3</v>
+      </c>
+      <c r="J4" t="n">
+        <v>3</v>
+      </c>
+      <c r="K4" t="n">
+        <v>3</v>
+      </c>
+      <c r="L4" t="n">
+        <v>3</v>
+      </c>
+      <c r="M4" t="n">
+        <v>3</v>
+      </c>
+      <c r="N4" t="n">
+        <v>3</v>
+      </c>
+      <c r="O4" t="n">
+        <v>3</v>
+      </c>
+      <c r="P4" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>3</v>
+      </c>
+      <c r="R4" t="n">
+        <v>3</v>
+      </c>
+      <c r="S4" t="n">
+        <v>3</v>
+      </c>
+      <c r="T4" t="n">
+        <v>3</v>
+      </c>
+      <c r="U4" t="n">
+        <v>3</v>
+      </c>
+      <c r="V4" t="n">
+        <v>3</v>
+      </c>
+      <c r="W4" t="n">
+        <v>3</v>
+      </c>
+      <c r="X4" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -7286,6 +9015,81 @@
           <t>5/7/2020</t>
         </is>
       </c>
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="n">
+        <v>3</v>
+      </c>
+      <c r="E5" t="n">
+        <v>3</v>
+      </c>
+      <c r="F5" t="n">
+        <v>3</v>
+      </c>
+      <c r="G5" t="n">
+        <v>3</v>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+      <c r="I5" t="n">
+        <v>3</v>
+      </c>
+      <c r="J5" t="n">
+        <v>3</v>
+      </c>
+      <c r="K5" t="n">
+        <v>3</v>
+      </c>
+      <c r="L5" t="n">
+        <v>3</v>
+      </c>
+      <c r="M5" t="n">
+        <v>3</v>
+      </c>
+      <c r="N5" t="n">
+        <v>3</v>
+      </c>
+      <c r="O5" t="n">
+        <v>3</v>
+      </c>
+      <c r="P5" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>3</v>
+      </c>
+      <c r="R5" t="n">
+        <v>3</v>
+      </c>
+      <c r="S5" t="n">
+        <v>3</v>
+      </c>
+      <c r="T5" t="n">
+        <v>3</v>
+      </c>
+      <c r="U5" t="n">
+        <v>3</v>
+      </c>
+      <c r="V5" t="n">
+        <v>3</v>
+      </c>
+      <c r="W5" t="n">
+        <v>3</v>
+      </c>
+      <c r="X5" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -7293,6 +9097,81 @@
           <t>5/8/2020</t>
         </is>
       </c>
+      <c r="B6" t="n">
+        <v>3</v>
+      </c>
+      <c r="C6" t="n">
+        <v>3</v>
+      </c>
+      <c r="D6" t="n">
+        <v>3</v>
+      </c>
+      <c r="E6" t="n">
+        <v>3</v>
+      </c>
+      <c r="F6" t="n">
+        <v>3</v>
+      </c>
+      <c r="G6" t="n">
+        <v>3</v>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+      <c r="I6" t="n">
+        <v>3</v>
+      </c>
+      <c r="J6" t="n">
+        <v>3</v>
+      </c>
+      <c r="K6" t="n">
+        <v>3</v>
+      </c>
+      <c r="L6" t="n">
+        <v>3</v>
+      </c>
+      <c r="M6" t="n">
+        <v>3</v>
+      </c>
+      <c r="N6" t="n">
+        <v>3</v>
+      </c>
+      <c r="O6" t="n">
+        <v>3</v>
+      </c>
+      <c r="P6" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>3</v>
+      </c>
+      <c r="R6" t="n">
+        <v>3</v>
+      </c>
+      <c r="S6" t="n">
+        <v>3</v>
+      </c>
+      <c r="T6" t="n">
+        <v>3</v>
+      </c>
+      <c r="U6" t="n">
+        <v>3</v>
+      </c>
+      <c r="V6" t="n">
+        <v>3</v>
+      </c>
+      <c r="W6" t="n">
+        <v>3</v>
+      </c>
+      <c r="X6" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -7300,6 +9179,81 @@
           <t>5/9/2020</t>
         </is>
       </c>
+      <c r="B7" t="n">
+        <v>3</v>
+      </c>
+      <c r="C7" t="n">
+        <v>3</v>
+      </c>
+      <c r="D7" t="n">
+        <v>3</v>
+      </c>
+      <c r="E7" t="n">
+        <v>3</v>
+      </c>
+      <c r="F7" t="n">
+        <v>3</v>
+      </c>
+      <c r="G7" t="n">
+        <v>3</v>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+      <c r="I7" t="n">
+        <v>3</v>
+      </c>
+      <c r="J7" t="n">
+        <v>3</v>
+      </c>
+      <c r="K7" t="n">
+        <v>3</v>
+      </c>
+      <c r="L7" t="n">
+        <v>3</v>
+      </c>
+      <c r="M7" t="n">
+        <v>3</v>
+      </c>
+      <c r="N7" t="n">
+        <v>3</v>
+      </c>
+      <c r="O7" t="n">
+        <v>3</v>
+      </c>
+      <c r="P7" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>3</v>
+      </c>
+      <c r="R7" t="n">
+        <v>3</v>
+      </c>
+      <c r="S7" t="n">
+        <v>3</v>
+      </c>
+      <c r="T7" t="n">
+        <v>3</v>
+      </c>
+      <c r="U7" t="n">
+        <v>3</v>
+      </c>
+      <c r="V7" t="n">
+        <v>3</v>
+      </c>
+      <c r="W7" t="n">
+        <v>3</v>
+      </c>
+      <c r="X7" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -7307,6 +9261,81 @@
           <t>5/10/2020</t>
         </is>
       </c>
+      <c r="B8" t="n">
+        <v>3</v>
+      </c>
+      <c r="C8" t="n">
+        <v>3</v>
+      </c>
+      <c r="D8" t="n">
+        <v>3</v>
+      </c>
+      <c r="E8" t="n">
+        <v>3</v>
+      </c>
+      <c r="F8" t="n">
+        <v>3</v>
+      </c>
+      <c r="G8" t="n">
+        <v>3</v>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+      <c r="I8" t="n">
+        <v>3</v>
+      </c>
+      <c r="J8" t="n">
+        <v>3</v>
+      </c>
+      <c r="K8" t="n">
+        <v>3</v>
+      </c>
+      <c r="L8" t="n">
+        <v>3</v>
+      </c>
+      <c r="M8" t="n">
+        <v>3</v>
+      </c>
+      <c r="N8" t="n">
+        <v>3</v>
+      </c>
+      <c r="O8" t="n">
+        <v>3</v>
+      </c>
+      <c r="P8" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>3</v>
+      </c>
+      <c r="R8" t="n">
+        <v>3</v>
+      </c>
+      <c r="S8" t="n">
+        <v>3</v>
+      </c>
+      <c r="T8" t="n">
+        <v>3</v>
+      </c>
+      <c r="U8" t="n">
+        <v>3</v>
+      </c>
+      <c r="V8" t="n">
+        <v>3</v>
+      </c>
+      <c r="W8" t="n">
+        <v>3</v>
+      </c>
+      <c r="X8" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -7314,6 +9343,81 @@
           <t>5/11/2020</t>
         </is>
       </c>
+      <c r="B9" t="n">
+        <v>3</v>
+      </c>
+      <c r="C9" t="n">
+        <v>3</v>
+      </c>
+      <c r="D9" t="n">
+        <v>3</v>
+      </c>
+      <c r="E9" t="n">
+        <v>3</v>
+      </c>
+      <c r="F9" t="n">
+        <v>3</v>
+      </c>
+      <c r="G9" t="n">
+        <v>3</v>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+      <c r="I9" t="n">
+        <v>3</v>
+      </c>
+      <c r="J9" t="n">
+        <v>3</v>
+      </c>
+      <c r="K9" t="n">
+        <v>3</v>
+      </c>
+      <c r="L9" t="n">
+        <v>3</v>
+      </c>
+      <c r="M9" t="n">
+        <v>3</v>
+      </c>
+      <c r="N9" t="n">
+        <v>3</v>
+      </c>
+      <c r="O9" t="n">
+        <v>3</v>
+      </c>
+      <c r="P9" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>3</v>
+      </c>
+      <c r="R9" t="n">
+        <v>3</v>
+      </c>
+      <c r="S9" t="n">
+        <v>3</v>
+      </c>
+      <c r="T9" t="n">
+        <v>3</v>
+      </c>
+      <c r="U9" t="n">
+        <v>3</v>
+      </c>
+      <c r="V9" t="n">
+        <v>3</v>
+      </c>
+      <c r="W9" t="n">
+        <v>3</v>
+      </c>
+      <c r="X9" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -7321,6 +9425,81 @@
           <t>5/12/2020</t>
         </is>
       </c>
+      <c r="B10" t="n">
+        <v>3</v>
+      </c>
+      <c r="C10" t="n">
+        <v>3</v>
+      </c>
+      <c r="D10" t="n">
+        <v>3</v>
+      </c>
+      <c r="E10" t="n">
+        <v>3</v>
+      </c>
+      <c r="F10" t="n">
+        <v>3</v>
+      </c>
+      <c r="G10" t="n">
+        <v>3</v>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+      <c r="I10" t="n">
+        <v>3</v>
+      </c>
+      <c r="J10" t="n">
+        <v>3</v>
+      </c>
+      <c r="K10" t="n">
+        <v>3</v>
+      </c>
+      <c r="L10" t="n">
+        <v>3</v>
+      </c>
+      <c r="M10" t="n">
+        <v>3</v>
+      </c>
+      <c r="N10" t="n">
+        <v>3</v>
+      </c>
+      <c r="O10" t="n">
+        <v>3</v>
+      </c>
+      <c r="P10" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>3</v>
+      </c>
+      <c r="R10" t="n">
+        <v>3</v>
+      </c>
+      <c r="S10" t="n">
+        <v>3</v>
+      </c>
+      <c r="T10" t="n">
+        <v>3</v>
+      </c>
+      <c r="U10" t="n">
+        <v>3</v>
+      </c>
+      <c r="V10" t="n">
+        <v>3</v>
+      </c>
+      <c r="W10" t="n">
+        <v>3</v>
+      </c>
+      <c r="X10" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -7328,6 +9507,81 @@
           <t>5/13/2020</t>
         </is>
       </c>
+      <c r="B11" t="n">
+        <v>3</v>
+      </c>
+      <c r="C11" t="n">
+        <v>3</v>
+      </c>
+      <c r="D11" t="n">
+        <v>3</v>
+      </c>
+      <c r="E11" t="n">
+        <v>3</v>
+      </c>
+      <c r="F11" t="n">
+        <v>3</v>
+      </c>
+      <c r="G11" t="n">
+        <v>3</v>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+      <c r="I11" t="n">
+        <v>3</v>
+      </c>
+      <c r="J11" t="n">
+        <v>3</v>
+      </c>
+      <c r="K11" t="n">
+        <v>3</v>
+      </c>
+      <c r="L11" t="n">
+        <v>3</v>
+      </c>
+      <c r="M11" t="n">
+        <v>3</v>
+      </c>
+      <c r="N11" t="n">
+        <v>3</v>
+      </c>
+      <c r="O11" t="n">
+        <v>3</v>
+      </c>
+      <c r="P11" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>3</v>
+      </c>
+      <c r="R11" t="n">
+        <v>3</v>
+      </c>
+      <c r="S11" t="n">
+        <v>3</v>
+      </c>
+      <c r="T11" t="n">
+        <v>3</v>
+      </c>
+      <c r="U11" t="n">
+        <v>3</v>
+      </c>
+      <c r="V11" t="n">
+        <v>3</v>
+      </c>
+      <c r="W11" t="n">
+        <v>3</v>
+      </c>
+      <c r="X11" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -7335,6 +9589,81 @@
           <t>5/14/2020</t>
         </is>
       </c>
+      <c r="B12" t="n">
+        <v>3</v>
+      </c>
+      <c r="C12" t="n">
+        <v>3</v>
+      </c>
+      <c r="D12" t="n">
+        <v>3</v>
+      </c>
+      <c r="E12" t="n">
+        <v>3</v>
+      </c>
+      <c r="F12" t="n">
+        <v>3</v>
+      </c>
+      <c r="G12" t="n">
+        <v>3</v>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+      <c r="I12" t="n">
+        <v>3</v>
+      </c>
+      <c r="J12" t="n">
+        <v>3</v>
+      </c>
+      <c r="K12" t="n">
+        <v>3</v>
+      </c>
+      <c r="L12" t="n">
+        <v>3</v>
+      </c>
+      <c r="M12" t="n">
+        <v>3</v>
+      </c>
+      <c r="N12" t="n">
+        <v>3</v>
+      </c>
+      <c r="O12" t="n">
+        <v>3</v>
+      </c>
+      <c r="P12" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>3</v>
+      </c>
+      <c r="R12" t="n">
+        <v>3</v>
+      </c>
+      <c r="S12" t="n">
+        <v>3</v>
+      </c>
+      <c r="T12" t="n">
+        <v>3</v>
+      </c>
+      <c r="U12" t="n">
+        <v>3</v>
+      </c>
+      <c r="V12" t="n">
+        <v>3</v>
+      </c>
+      <c r="W12" t="n">
+        <v>3</v>
+      </c>
+      <c r="X12" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -7342,6 +9671,81 @@
           <t>5/15/2020</t>
         </is>
       </c>
+      <c r="B13" t="n">
+        <v>3</v>
+      </c>
+      <c r="C13" t="n">
+        <v>3</v>
+      </c>
+      <c r="D13" t="n">
+        <v>3</v>
+      </c>
+      <c r="E13" t="n">
+        <v>3</v>
+      </c>
+      <c r="F13" t="n">
+        <v>3</v>
+      </c>
+      <c r="G13" t="n">
+        <v>3</v>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+      <c r="I13" t="n">
+        <v>3</v>
+      </c>
+      <c r="J13" t="n">
+        <v>3</v>
+      </c>
+      <c r="K13" t="n">
+        <v>3</v>
+      </c>
+      <c r="L13" t="n">
+        <v>3</v>
+      </c>
+      <c r="M13" t="n">
+        <v>3</v>
+      </c>
+      <c r="N13" t="n">
+        <v>3</v>
+      </c>
+      <c r="O13" t="n">
+        <v>3</v>
+      </c>
+      <c r="P13" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>3</v>
+      </c>
+      <c r="R13" t="n">
+        <v>3</v>
+      </c>
+      <c r="S13" t="n">
+        <v>3</v>
+      </c>
+      <c r="T13" t="n">
+        <v>3</v>
+      </c>
+      <c r="U13" t="n">
+        <v>3</v>
+      </c>
+      <c r="V13" t="n">
+        <v>3</v>
+      </c>
+      <c r="W13" t="n">
+        <v>3</v>
+      </c>
+      <c r="X13" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -7349,6 +9753,81 @@
           <t>5/16/2020</t>
         </is>
       </c>
+      <c r="B14" t="n">
+        <v>3</v>
+      </c>
+      <c r="C14" t="n">
+        <v>3</v>
+      </c>
+      <c r="D14" t="n">
+        <v>3</v>
+      </c>
+      <c r="E14" t="n">
+        <v>3</v>
+      </c>
+      <c r="F14" t="n">
+        <v>3</v>
+      </c>
+      <c r="G14" t="n">
+        <v>3</v>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+      <c r="I14" t="n">
+        <v>3</v>
+      </c>
+      <c r="J14" t="n">
+        <v>3</v>
+      </c>
+      <c r="K14" t="n">
+        <v>3</v>
+      </c>
+      <c r="L14" t="n">
+        <v>3</v>
+      </c>
+      <c r="M14" t="n">
+        <v>3</v>
+      </c>
+      <c r="N14" t="n">
+        <v>3</v>
+      </c>
+      <c r="O14" t="n">
+        <v>3</v>
+      </c>
+      <c r="P14" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>3</v>
+      </c>
+      <c r="R14" t="n">
+        <v>3</v>
+      </c>
+      <c r="S14" t="n">
+        <v>3</v>
+      </c>
+      <c r="T14" t="n">
+        <v>3</v>
+      </c>
+      <c r="U14" t="n">
+        <v>3</v>
+      </c>
+      <c r="V14" t="n">
+        <v>3</v>
+      </c>
+      <c r="W14" t="n">
+        <v>3</v>
+      </c>
+      <c r="X14" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -7356,6 +9835,81 @@
           <t>5/17/2020</t>
         </is>
       </c>
+      <c r="B15" t="n">
+        <v>3</v>
+      </c>
+      <c r="C15" t="n">
+        <v>3</v>
+      </c>
+      <c r="D15" t="n">
+        <v>3</v>
+      </c>
+      <c r="E15" t="n">
+        <v>3</v>
+      </c>
+      <c r="F15" t="n">
+        <v>3</v>
+      </c>
+      <c r="G15" t="n">
+        <v>3</v>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+      <c r="I15" t="n">
+        <v>3</v>
+      </c>
+      <c r="J15" t="n">
+        <v>3</v>
+      </c>
+      <c r="K15" t="n">
+        <v>3</v>
+      </c>
+      <c r="L15" t="n">
+        <v>3</v>
+      </c>
+      <c r="M15" t="n">
+        <v>3</v>
+      </c>
+      <c r="N15" t="n">
+        <v>3</v>
+      </c>
+      <c r="O15" t="n">
+        <v>3</v>
+      </c>
+      <c r="P15" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>3</v>
+      </c>
+      <c r="R15" t="n">
+        <v>3</v>
+      </c>
+      <c r="S15" t="n">
+        <v>3</v>
+      </c>
+      <c r="T15" t="n">
+        <v>3</v>
+      </c>
+      <c r="U15" t="n">
+        <v>3</v>
+      </c>
+      <c r="V15" t="n">
+        <v>3</v>
+      </c>
+      <c r="W15" t="n">
+        <v>3</v>
+      </c>
+      <c r="X15" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -7363,6 +9917,81 @@
           <t>5/18/2020</t>
         </is>
       </c>
+      <c r="B16" t="n">
+        <v>3</v>
+      </c>
+      <c r="C16" t="n">
+        <v>3</v>
+      </c>
+      <c r="D16" t="n">
+        <v>3</v>
+      </c>
+      <c r="E16" t="n">
+        <v>3</v>
+      </c>
+      <c r="F16" t="n">
+        <v>3</v>
+      </c>
+      <c r="G16" t="n">
+        <v>3</v>
+      </c>
+      <c r="H16" t="n">
+        <v>3</v>
+      </c>
+      <c r="I16" t="n">
+        <v>3</v>
+      </c>
+      <c r="J16" t="n">
+        <v>3</v>
+      </c>
+      <c r="K16" t="n">
+        <v>3</v>
+      </c>
+      <c r="L16" t="n">
+        <v>3</v>
+      </c>
+      <c r="M16" t="n">
+        <v>3</v>
+      </c>
+      <c r="N16" t="n">
+        <v>3</v>
+      </c>
+      <c r="O16" t="n">
+        <v>3</v>
+      </c>
+      <c r="P16" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>3</v>
+      </c>
+      <c r="R16" t="n">
+        <v>3</v>
+      </c>
+      <c r="S16" t="n">
+        <v>3</v>
+      </c>
+      <c r="T16" t="n">
+        <v>3</v>
+      </c>
+      <c r="U16" t="n">
+        <v>3</v>
+      </c>
+      <c r="V16" t="n">
+        <v>3</v>
+      </c>
+      <c r="W16" t="n">
+        <v>3</v>
+      </c>
+      <c r="X16" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -7370,6 +9999,81 @@
           <t>5/19/2020</t>
         </is>
       </c>
+      <c r="B17" t="n">
+        <v>3</v>
+      </c>
+      <c r="C17" t="n">
+        <v>3</v>
+      </c>
+      <c r="D17" t="n">
+        <v>3</v>
+      </c>
+      <c r="E17" t="n">
+        <v>3</v>
+      </c>
+      <c r="F17" t="n">
+        <v>3</v>
+      </c>
+      <c r="G17" t="n">
+        <v>3</v>
+      </c>
+      <c r="H17" t="n">
+        <v>3</v>
+      </c>
+      <c r="I17" t="n">
+        <v>3</v>
+      </c>
+      <c r="J17" t="n">
+        <v>3</v>
+      </c>
+      <c r="K17" t="n">
+        <v>3</v>
+      </c>
+      <c r="L17" t="n">
+        <v>3</v>
+      </c>
+      <c r="M17" t="n">
+        <v>3</v>
+      </c>
+      <c r="N17" t="n">
+        <v>3</v>
+      </c>
+      <c r="O17" t="n">
+        <v>3</v>
+      </c>
+      <c r="P17" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>3</v>
+      </c>
+      <c r="R17" t="n">
+        <v>3</v>
+      </c>
+      <c r="S17" t="n">
+        <v>3</v>
+      </c>
+      <c r="T17" t="n">
+        <v>3</v>
+      </c>
+      <c r="U17" t="n">
+        <v>3</v>
+      </c>
+      <c r="V17" t="n">
+        <v>3</v>
+      </c>
+      <c r="W17" t="n">
+        <v>3</v>
+      </c>
+      <c r="X17" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -7377,6 +10081,81 @@
           <t>5/20/2020</t>
         </is>
       </c>
+      <c r="B18" t="n">
+        <v>3</v>
+      </c>
+      <c r="C18" t="n">
+        <v>3</v>
+      </c>
+      <c r="D18" t="n">
+        <v>3</v>
+      </c>
+      <c r="E18" t="n">
+        <v>3</v>
+      </c>
+      <c r="F18" t="n">
+        <v>3</v>
+      </c>
+      <c r="G18" t="n">
+        <v>3</v>
+      </c>
+      <c r="H18" t="n">
+        <v>3</v>
+      </c>
+      <c r="I18" t="n">
+        <v>3</v>
+      </c>
+      <c r="J18" t="n">
+        <v>3</v>
+      </c>
+      <c r="K18" t="n">
+        <v>3</v>
+      </c>
+      <c r="L18" t="n">
+        <v>3</v>
+      </c>
+      <c r="M18" t="n">
+        <v>3</v>
+      </c>
+      <c r="N18" t="n">
+        <v>3</v>
+      </c>
+      <c r="O18" t="n">
+        <v>3</v>
+      </c>
+      <c r="P18" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>3</v>
+      </c>
+      <c r="R18" t="n">
+        <v>3</v>
+      </c>
+      <c r="S18" t="n">
+        <v>3</v>
+      </c>
+      <c r="T18" t="n">
+        <v>3</v>
+      </c>
+      <c r="U18" t="n">
+        <v>3</v>
+      </c>
+      <c r="V18" t="n">
+        <v>3</v>
+      </c>
+      <c r="W18" t="n">
+        <v>3</v>
+      </c>
+      <c r="X18" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -7384,6 +10163,81 @@
           <t>5/21/2020</t>
         </is>
       </c>
+      <c r="B19" t="n">
+        <v>3</v>
+      </c>
+      <c r="C19" t="n">
+        <v>3</v>
+      </c>
+      <c r="D19" t="n">
+        <v>3</v>
+      </c>
+      <c r="E19" t="n">
+        <v>3</v>
+      </c>
+      <c r="F19" t="n">
+        <v>3</v>
+      </c>
+      <c r="G19" t="n">
+        <v>3</v>
+      </c>
+      <c r="H19" t="n">
+        <v>3</v>
+      </c>
+      <c r="I19" t="n">
+        <v>3</v>
+      </c>
+      <c r="J19" t="n">
+        <v>3</v>
+      </c>
+      <c r="K19" t="n">
+        <v>3</v>
+      </c>
+      <c r="L19" t="n">
+        <v>3</v>
+      </c>
+      <c r="M19" t="n">
+        <v>3</v>
+      </c>
+      <c r="N19" t="n">
+        <v>3</v>
+      </c>
+      <c r="O19" t="n">
+        <v>3</v>
+      </c>
+      <c r="P19" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>3</v>
+      </c>
+      <c r="R19" t="n">
+        <v>3</v>
+      </c>
+      <c r="S19" t="n">
+        <v>3</v>
+      </c>
+      <c r="T19" t="n">
+        <v>3</v>
+      </c>
+      <c r="U19" t="n">
+        <v>3</v>
+      </c>
+      <c r="V19" t="n">
+        <v>3</v>
+      </c>
+      <c r="W19" t="n">
+        <v>3</v>
+      </c>
+      <c r="X19" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -7391,6 +10245,81 @@
           <t>5/22/2020</t>
         </is>
       </c>
+      <c r="B20" t="n">
+        <v>3</v>
+      </c>
+      <c r="C20" t="n">
+        <v>3</v>
+      </c>
+      <c r="D20" t="n">
+        <v>3</v>
+      </c>
+      <c r="E20" t="n">
+        <v>3</v>
+      </c>
+      <c r="F20" t="n">
+        <v>3</v>
+      </c>
+      <c r="G20" t="n">
+        <v>3</v>
+      </c>
+      <c r="H20" t="n">
+        <v>3</v>
+      </c>
+      <c r="I20" t="n">
+        <v>3</v>
+      </c>
+      <c r="J20" t="n">
+        <v>3</v>
+      </c>
+      <c r="K20" t="n">
+        <v>3</v>
+      </c>
+      <c r="L20" t="n">
+        <v>3</v>
+      </c>
+      <c r="M20" t="n">
+        <v>3</v>
+      </c>
+      <c r="N20" t="n">
+        <v>3</v>
+      </c>
+      <c r="O20" t="n">
+        <v>3</v>
+      </c>
+      <c r="P20" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>3</v>
+      </c>
+      <c r="R20" t="n">
+        <v>3</v>
+      </c>
+      <c r="S20" t="n">
+        <v>3</v>
+      </c>
+      <c r="T20" t="n">
+        <v>3</v>
+      </c>
+      <c r="U20" t="n">
+        <v>3</v>
+      </c>
+      <c r="V20" t="n">
+        <v>3</v>
+      </c>
+      <c r="W20" t="n">
+        <v>3</v>
+      </c>
+      <c r="X20" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -7398,6 +10327,81 @@
           <t>5/23/2020</t>
         </is>
       </c>
+      <c r="B21" t="n">
+        <v>3</v>
+      </c>
+      <c r="C21" t="n">
+        <v>3</v>
+      </c>
+      <c r="D21" t="n">
+        <v>3</v>
+      </c>
+      <c r="E21" t="n">
+        <v>3</v>
+      </c>
+      <c r="F21" t="n">
+        <v>3</v>
+      </c>
+      <c r="G21" t="n">
+        <v>3</v>
+      </c>
+      <c r="H21" t="n">
+        <v>3</v>
+      </c>
+      <c r="I21" t="n">
+        <v>3</v>
+      </c>
+      <c r="J21" t="n">
+        <v>3</v>
+      </c>
+      <c r="K21" t="n">
+        <v>3</v>
+      </c>
+      <c r="L21" t="n">
+        <v>3</v>
+      </c>
+      <c r="M21" t="n">
+        <v>3</v>
+      </c>
+      <c r="N21" t="n">
+        <v>3</v>
+      </c>
+      <c r="O21" t="n">
+        <v>3</v>
+      </c>
+      <c r="P21" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>3</v>
+      </c>
+      <c r="R21" t="n">
+        <v>3</v>
+      </c>
+      <c r="S21" t="n">
+        <v>3</v>
+      </c>
+      <c r="T21" t="n">
+        <v>3</v>
+      </c>
+      <c r="U21" t="n">
+        <v>3</v>
+      </c>
+      <c r="V21" t="n">
+        <v>3</v>
+      </c>
+      <c r="W21" t="n">
+        <v>3</v>
+      </c>
+      <c r="X21" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -7405,6 +10409,81 @@
           <t>5/24/2020</t>
         </is>
       </c>
+      <c r="B22" t="n">
+        <v>3</v>
+      </c>
+      <c r="C22" t="n">
+        <v>3</v>
+      </c>
+      <c r="D22" t="n">
+        <v>3</v>
+      </c>
+      <c r="E22" t="n">
+        <v>3</v>
+      </c>
+      <c r="F22" t="n">
+        <v>3</v>
+      </c>
+      <c r="G22" t="n">
+        <v>3</v>
+      </c>
+      <c r="H22" t="n">
+        <v>3</v>
+      </c>
+      <c r="I22" t="n">
+        <v>3</v>
+      </c>
+      <c r="J22" t="n">
+        <v>3</v>
+      </c>
+      <c r="K22" t="n">
+        <v>3</v>
+      </c>
+      <c r="L22" t="n">
+        <v>3</v>
+      </c>
+      <c r="M22" t="n">
+        <v>3</v>
+      </c>
+      <c r="N22" t="n">
+        <v>3</v>
+      </c>
+      <c r="O22" t="n">
+        <v>3</v>
+      </c>
+      <c r="P22" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>3</v>
+      </c>
+      <c r="R22" t="n">
+        <v>3</v>
+      </c>
+      <c r="S22" t="n">
+        <v>3</v>
+      </c>
+      <c r="T22" t="n">
+        <v>3</v>
+      </c>
+      <c r="U22" t="n">
+        <v>3</v>
+      </c>
+      <c r="V22" t="n">
+        <v>3</v>
+      </c>
+      <c r="W22" t="n">
+        <v>3</v>
+      </c>
+      <c r="X22" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -7412,6 +10491,81 @@
           <t>5/25/2020</t>
         </is>
       </c>
+      <c r="B23" t="n">
+        <v>3</v>
+      </c>
+      <c r="C23" t="n">
+        <v>3</v>
+      </c>
+      <c r="D23" t="n">
+        <v>3</v>
+      </c>
+      <c r="E23" t="n">
+        <v>3</v>
+      </c>
+      <c r="F23" t="n">
+        <v>3</v>
+      </c>
+      <c r="G23" t="n">
+        <v>3</v>
+      </c>
+      <c r="H23" t="n">
+        <v>3</v>
+      </c>
+      <c r="I23" t="n">
+        <v>3</v>
+      </c>
+      <c r="J23" t="n">
+        <v>3</v>
+      </c>
+      <c r="K23" t="n">
+        <v>3</v>
+      </c>
+      <c r="L23" t="n">
+        <v>3</v>
+      </c>
+      <c r="M23" t="n">
+        <v>3</v>
+      </c>
+      <c r="N23" t="n">
+        <v>3</v>
+      </c>
+      <c r="O23" t="n">
+        <v>3</v>
+      </c>
+      <c r="P23" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>3</v>
+      </c>
+      <c r="R23" t="n">
+        <v>3</v>
+      </c>
+      <c r="S23" t="n">
+        <v>3</v>
+      </c>
+      <c r="T23" t="n">
+        <v>3</v>
+      </c>
+      <c r="U23" t="n">
+        <v>3</v>
+      </c>
+      <c r="V23" t="n">
+        <v>3</v>
+      </c>
+      <c r="W23" t="n">
+        <v>3</v>
+      </c>
+      <c r="X23" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
@@ -7419,6 +10573,81 @@
           <t>5/26/2020</t>
         </is>
       </c>
+      <c r="B24" t="n">
+        <v>3</v>
+      </c>
+      <c r="C24" t="n">
+        <v>3</v>
+      </c>
+      <c r="D24" t="n">
+        <v>3</v>
+      </c>
+      <c r="E24" t="n">
+        <v>3</v>
+      </c>
+      <c r="F24" t="n">
+        <v>3</v>
+      </c>
+      <c r="G24" t="n">
+        <v>3</v>
+      </c>
+      <c r="H24" t="n">
+        <v>3</v>
+      </c>
+      <c r="I24" t="n">
+        <v>3</v>
+      </c>
+      <c r="J24" t="n">
+        <v>3</v>
+      </c>
+      <c r="K24" t="n">
+        <v>3</v>
+      </c>
+      <c r="L24" t="n">
+        <v>3</v>
+      </c>
+      <c r="M24" t="n">
+        <v>3</v>
+      </c>
+      <c r="N24" t="n">
+        <v>3</v>
+      </c>
+      <c r="O24" t="n">
+        <v>3</v>
+      </c>
+      <c r="P24" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>3</v>
+      </c>
+      <c r="R24" t="n">
+        <v>3</v>
+      </c>
+      <c r="S24" t="n">
+        <v>3</v>
+      </c>
+      <c r="T24" t="n">
+        <v>3</v>
+      </c>
+      <c r="U24" t="n">
+        <v>3</v>
+      </c>
+      <c r="V24" t="n">
+        <v>3</v>
+      </c>
+      <c r="W24" t="n">
+        <v>3</v>
+      </c>
+      <c r="X24" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
@@ -7426,12 +10655,162 @@
           <t>5/27/2020</t>
         </is>
       </c>
+      <c r="B25" t="n">
+        <v>3</v>
+      </c>
+      <c r="C25" t="n">
+        <v>3</v>
+      </c>
+      <c r="D25" t="n">
+        <v>3</v>
+      </c>
+      <c r="E25" t="n">
+        <v>3</v>
+      </c>
+      <c r="F25" t="n">
+        <v>3</v>
+      </c>
+      <c r="G25" t="n">
+        <v>3</v>
+      </c>
+      <c r="H25" t="n">
+        <v>3</v>
+      </c>
+      <c r="I25" t="n">
+        <v>3</v>
+      </c>
+      <c r="J25" t="n">
+        <v>3</v>
+      </c>
+      <c r="K25" t="n">
+        <v>3</v>
+      </c>
+      <c r="L25" t="n">
+        <v>3</v>
+      </c>
+      <c r="M25" t="n">
+        <v>3</v>
+      </c>
+      <c r="N25" t="n">
+        <v>3</v>
+      </c>
+      <c r="O25" t="n">
+        <v>3</v>
+      </c>
+      <c r="P25" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>3</v>
+      </c>
+      <c r="R25" t="n">
+        <v>3</v>
+      </c>
+      <c r="S25" t="n">
+        <v>3</v>
+      </c>
+      <c r="T25" t="n">
+        <v>3</v>
+      </c>
+      <c r="U25" t="n">
+        <v>3</v>
+      </c>
+      <c r="V25" t="n">
+        <v>3</v>
+      </c>
+      <c r="W25" t="n">
+        <v>3</v>
+      </c>
+      <c r="X25" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
           <t>5/28/2020</t>
         </is>
+      </c>
+      <c r="B26" t="n">
+        <v>4</v>
+      </c>
+      <c r="C26" t="n">
+        <v>4</v>
+      </c>
+      <c r="D26" t="n">
+        <v>4</v>
+      </c>
+      <c r="E26" t="n">
+        <v>4</v>
+      </c>
+      <c r="F26" t="n">
+        <v>4</v>
+      </c>
+      <c r="G26" t="n">
+        <v>4</v>
+      </c>
+      <c r="H26" t="n">
+        <v>4</v>
+      </c>
+      <c r="I26" t="n">
+        <v>4</v>
+      </c>
+      <c r="J26" t="n">
+        <v>4</v>
+      </c>
+      <c r="K26" t="n">
+        <v>4</v>
+      </c>
+      <c r="L26" t="n">
+        <v>4</v>
+      </c>
+      <c r="M26" t="n">
+        <v>4</v>
+      </c>
+      <c r="N26" t="n">
+        <v>4</v>
+      </c>
+      <c r="O26" t="n">
+        <v>4</v>
+      </c>
+      <c r="P26" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>4</v>
+      </c>
+      <c r="R26" t="n">
+        <v>4</v>
+      </c>
+      <c r="S26" t="n">
+        <v>4</v>
+      </c>
+      <c r="T26" t="n">
+        <v>4</v>
+      </c>
+      <c r="U26" t="n">
+        <v>4</v>
+      </c>
+      <c r="V26" t="n">
+        <v>4</v>
+      </c>
+      <c r="W26" t="n">
+        <v>4</v>
+      </c>
+      <c r="X26" t="n">
+        <v>4</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>4</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>96</v>
       </c>
     </row>
     <row r="27">
@@ -13626,10 +17005,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B25"/>
+  <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -13646,6 +17025,11 @@
       <c r="B1" t="n">
         <v>20</v>
       </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>in</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -13656,6 +17040,11 @@
       <c r="B2" t="n">
         <v>230</v>
       </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>in</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -13666,6 +17055,11 @@
       <c r="B3" t="n">
         <v>20</v>
       </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>in</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -13676,6 +17070,11 @@
       <c r="B4" t="n">
         <v>20</v>
       </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>in</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -13684,7 +17083,12 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>80</v>
+        <v>60</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>in</t>
+        </is>
       </c>
     </row>
     <row r="6">
@@ -13696,6 +17100,11 @@
       <c r="B6" t="n">
         <v>20</v>
       </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>in</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -13706,6 +17115,11 @@
       <c r="B7" t="n">
         <v>20</v>
       </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>in</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -13714,7 +17128,12 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>25</v>
+        <v>75</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>in</t>
+        </is>
       </c>
     </row>
     <row r="9">
@@ -13726,6 +17145,11 @@
       <c r="B9" t="n">
         <v>20</v>
       </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>in</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -13734,7 +17158,12 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>20</v>
+        <v>100</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>in</t>
+        </is>
       </c>
     </row>
     <row r="11">
@@ -13746,6 +17175,11 @@
       <c r="B11" t="n">
         <v>20</v>
       </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>in</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -13754,7 +17188,12 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>20</v>
+        <v>90</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>in</t>
+        </is>
       </c>
     </row>
     <row r="13">
@@ -13766,6 +17205,11 @@
       <c r="B13" t="n">
         <v>20</v>
       </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>in</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -13774,7 +17218,12 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>60</v>
+        <v>56</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>in</t>
+        </is>
       </c>
     </row>
     <row r="15">
@@ -13786,6 +17235,11 @@
       <c r="B15" t="n">
         <v>60</v>
       </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>in</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -13796,6 +17250,11 @@
       <c r="B16" t="n">
         <v>60</v>
       </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>in</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -13806,6 +17265,11 @@
       <c r="B17" t="n">
         <v>60</v>
       </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>in</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -13816,6 +17280,11 @@
       <c r="B18" t="n">
         <v>60</v>
       </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>in</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -13826,6 +17295,11 @@
       <c r="B19" t="n">
         <v>60</v>
       </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>in</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -13836,6 +17310,11 @@
       <c r="B20" t="n">
         <v>60</v>
       </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>in</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -13846,6 +17325,11 @@
       <c r="B21" t="n">
         <v>100</v>
       </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>in</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -13856,6 +17340,11 @@
       <c r="B22" t="n">
         <v>100</v>
       </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>in</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -13866,6 +17355,11 @@
       <c r="B23" t="n">
         <v>100</v>
       </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>in</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -13876,8 +17370,12 @@
       <c r="B24" t="n">
         <v>100</v>
       </c>
-    </row>
-    <row r="25"/>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>in</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/KOA-Lottery-Excel.xlsx
+++ b/KOA-Lottery-Excel.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" state="visible" r:id="rId1"/>
@@ -327,8 +327,8 @@
   </sheetPr>
   <dimension ref="A1:Y909"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -2362,9 +2362,6 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>7</v>
-      </c>
-      <c r="C26" t="n">
         <v>7</v>
       </c>
       <c r="D26" t="n">
@@ -8628,7 +8625,7 @@
   </sheetPr>
   <dimension ref="A1:Z909"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="AA23" sqref="AA23"/>
     </sheetView>
   </sheetViews>
@@ -17027,7 +17024,7 @@
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>in</t>
+          <t>out</t>
         </is>
       </c>
     </row>
@@ -17038,7 +17035,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>230</v>
+        <v>100</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>

--- a/KOA-Lottery-Excel.xlsx
+++ b/KOA-Lottery-Excel.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="2625" yWindow="615" windowWidth="23760" windowHeight="11385" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" state="visible" r:id="rId1"/>
@@ -327,8 +327,8 @@
   </sheetPr>
   <dimension ref="A1:Y909"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="Y28" sqref="Y28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -2364,6 +2364,9 @@
       <c r="B26" t="n">
         <v>7</v>
       </c>
+      <c r="C26" t="n">
+        <v>7</v>
+      </c>
       <c r="D26" t="n">
         <v>7</v>
       </c>
@@ -2437,6 +2440,78 @@
           <t>5/29/2020</t>
         </is>
       </c>
+      <c r="B27" t="n">
+        <v>7</v>
+      </c>
+      <c r="C27" t="n">
+        <v>7</v>
+      </c>
+      <c r="D27" t="n">
+        <v>7</v>
+      </c>
+      <c r="E27" t="n">
+        <v>7</v>
+      </c>
+      <c r="F27" t="n">
+        <v>7</v>
+      </c>
+      <c r="G27" t="n">
+        <v>7</v>
+      </c>
+      <c r="H27" t="n">
+        <v>7</v>
+      </c>
+      <c r="I27" t="n">
+        <v>7</v>
+      </c>
+      <c r="J27" t="n">
+        <v>7</v>
+      </c>
+      <c r="K27" t="n">
+        <v>7</v>
+      </c>
+      <c r="L27" t="n">
+        <v>7</v>
+      </c>
+      <c r="M27" t="n">
+        <v>7</v>
+      </c>
+      <c r="N27" t="n">
+        <v>7</v>
+      </c>
+      <c r="O27" t="n">
+        <v>7</v>
+      </c>
+      <c r="P27" t="n">
+        <v>7</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>7</v>
+      </c>
+      <c r="R27" t="n">
+        <v>7</v>
+      </c>
+      <c r="S27" t="n">
+        <v>7</v>
+      </c>
+      <c r="T27" t="n">
+        <v>7</v>
+      </c>
+      <c r="U27" t="n">
+        <v>7</v>
+      </c>
+      <c r="V27" t="n">
+        <v>7</v>
+      </c>
+      <c r="W27" t="n">
+        <v>7</v>
+      </c>
+      <c r="X27" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
@@ -2444,12 +2519,156 @@
           <t>5/30/2020</t>
         </is>
       </c>
+      <c r="B28" t="n">
+        <v>7</v>
+      </c>
+      <c r="C28" t="n">
+        <v>7</v>
+      </c>
+      <c r="D28" t="n">
+        <v>7</v>
+      </c>
+      <c r="E28" t="n">
+        <v>7</v>
+      </c>
+      <c r="F28" t="n">
+        <v>7</v>
+      </c>
+      <c r="G28" t="n">
+        <v>7</v>
+      </c>
+      <c r="H28" t="n">
+        <v>7</v>
+      </c>
+      <c r="I28" t="n">
+        <v>7</v>
+      </c>
+      <c r="J28" t="n">
+        <v>7</v>
+      </c>
+      <c r="K28" t="n">
+        <v>7</v>
+      </c>
+      <c r="L28" t="n">
+        <v>7</v>
+      </c>
+      <c r="M28" t="n">
+        <v>7</v>
+      </c>
+      <c r="N28" t="n">
+        <v>7</v>
+      </c>
+      <c r="O28" t="n">
+        <v>7</v>
+      </c>
+      <c r="P28" t="n">
+        <v>7</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>7</v>
+      </c>
+      <c r="R28" t="n">
+        <v>7</v>
+      </c>
+      <c r="S28" t="n">
+        <v>7</v>
+      </c>
+      <c r="T28" t="n">
+        <v>7</v>
+      </c>
+      <c r="U28" t="n">
+        <v>7</v>
+      </c>
+      <c r="V28" t="n">
+        <v>7</v>
+      </c>
+      <c r="W28" t="n">
+        <v>7</v>
+      </c>
+      <c r="X28" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y28" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
           <t>5/31/2020</t>
         </is>
+      </c>
+      <c r="B29" t="n">
+        <v>10</v>
+      </c>
+      <c r="C29" t="n">
+        <v>8</v>
+      </c>
+      <c r="D29" t="n">
+        <v>8</v>
+      </c>
+      <c r="E29" t="n">
+        <v>8</v>
+      </c>
+      <c r="F29" t="n">
+        <v>8</v>
+      </c>
+      <c r="G29" t="n">
+        <v>8</v>
+      </c>
+      <c r="H29" t="n">
+        <v>8</v>
+      </c>
+      <c r="I29" t="n">
+        <v>8</v>
+      </c>
+      <c r="J29" t="n">
+        <v>20</v>
+      </c>
+      <c r="K29" t="n">
+        <v>8</v>
+      </c>
+      <c r="L29" t="n">
+        <v>8</v>
+      </c>
+      <c r="M29" t="n">
+        <v>8</v>
+      </c>
+      <c r="N29" t="n">
+        <v>8</v>
+      </c>
+      <c r="O29" t="n">
+        <v>8</v>
+      </c>
+      <c r="P29" t="n">
+        <v>8</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>8</v>
+      </c>
+      <c r="R29" t="n">
+        <v>8</v>
+      </c>
+      <c r="S29" t="n">
+        <v>8</v>
+      </c>
+      <c r="T29" t="n">
+        <v>8</v>
+      </c>
+      <c r="U29" t="n">
+        <v>8</v>
+      </c>
+      <c r="V29" t="n">
+        <v>8</v>
+      </c>
+      <c r="W29" t="n">
+        <v>8</v>
+      </c>
+      <c r="X29" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y29" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="30">
@@ -8625,8 +8844,8 @@
   </sheetPr>
   <dimension ref="A1:Z909"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="AA23" sqref="AA23"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29:Y29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -10816,6 +11035,78 @@
           <t>5/29/2020</t>
         </is>
       </c>
+      <c r="B27" t="n">
+        <v>0</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0</v>
+      </c>
+      <c r="O27" t="n">
+        <v>0</v>
+      </c>
+      <c r="P27" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>0</v>
+      </c>
+      <c r="R27" t="n">
+        <v>0</v>
+      </c>
+      <c r="S27" t="n">
+        <v>0</v>
+      </c>
+      <c r="T27" t="n">
+        <v>0</v>
+      </c>
+      <c r="U27" t="n">
+        <v>0</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="n">
+        <v>0</v>
+      </c>
+      <c r="X27" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
@@ -10823,12 +11114,159 @@
           <t>5/30/2020</t>
         </is>
       </c>
+      <c r="B28" t="n">
+        <v>0</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0</v>
+      </c>
+      <c r="O28" t="n">
+        <v>0</v>
+      </c>
+      <c r="P28" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>0</v>
+      </c>
+      <c r="R28" t="n">
+        <v>0</v>
+      </c>
+      <c r="S28" t="n">
+        <v>0</v>
+      </c>
+      <c r="T28" t="n">
+        <v>0</v>
+      </c>
+      <c r="U28" t="n">
+        <v>0</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="n">
+        <v>0</v>
+      </c>
+      <c r="X28" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y28" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
           <t>5/31/2020</t>
         </is>
+      </c>
+      <c r="B29" t="n">
+        <v>3</v>
+      </c>
+      <c r="C29" t="n">
+        <v>1</v>
+      </c>
+      <c r="D29" t="n">
+        <v>1</v>
+      </c>
+      <c r="E29" t="n">
+        <v>1</v>
+      </c>
+      <c r="F29" t="n">
+        <v>1</v>
+      </c>
+      <c r="G29" t="n">
+        <v>1</v>
+      </c>
+      <c r="H29" t="n">
+        <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>1</v>
+      </c>
+      <c r="J29" t="n">
+        <v>13</v>
+      </c>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="n">
+        <v>1</v>
+      </c>
+      <c r="N29" t="n">
+        <v>1</v>
+      </c>
+      <c r="O29" t="n">
+        <v>1</v>
+      </c>
+      <c r="P29" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>1</v>
+      </c>
+      <c r="R29" t="n">
+        <v>1</v>
+      </c>
+      <c r="S29" t="n">
+        <v>1</v>
+      </c>
+      <c r="T29" t="n">
+        <v>1</v>
+      </c>
+      <c r="U29" t="n">
+        <v>1</v>
+      </c>
+      <c r="V29" t="n">
+        <v>1</v>
+      </c>
+      <c r="W29" t="n">
+        <v>1</v>
+      </c>
+      <c r="X29" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y29" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z29" t="n">
+        <v>38</v>
       </c>
     </row>
     <row r="30">
@@ -17020,7 +17458,7 @@
         </is>
       </c>
       <c r="B1" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C1" t="inlineStr">
         <is>
@@ -17144,7 +17582,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>in</t>
+          <t>out</t>
         </is>
       </c>
     </row>

--- a/KOA-Lottery-Excel.xlsx
+++ b/KOA-Lottery-Excel.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="2625" yWindow="615" windowWidth="23760" windowHeight="11385" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="29370" yWindow="1680" windowWidth="23760" windowHeight="11385" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" state="visible" r:id="rId1"/>
@@ -328,7 +328,7 @@
   <dimension ref="A1:Y909"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="Y28" sqref="Y28"/>
+      <selection activeCell="L30" sqref="L30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -2550,7 +2550,7 @@
         <v>7</v>
       </c>
       <c r="L28" t="n">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="M28" t="n">
         <v>7</v>
@@ -2599,7 +2599,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C29" t="n">
         <v>8</v>
@@ -2623,7 +2623,7 @@
         <v>8</v>
       </c>
       <c r="J29" t="n">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="K29" t="n">
         <v>8</v>
@@ -8845,7 +8845,7 @@
   <dimension ref="A1:Z909"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29:Y29"/>
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -11194,7 +11194,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C29" t="n">
         <v>1</v>
@@ -11218,13 +11218,13 @@
         <v>1</v>
       </c>
       <c r="J29" t="n">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="K29" t="n">
         <v>1</v>
       </c>
       <c r="L29" t="n">
-        <v>1</v>
+        <v>-12</v>
       </c>
       <c r="M29" t="n">
         <v>1</v>
@@ -11266,7 +11266,7 @@
         <v>1</v>
       </c>
       <c r="Z29" t="n">
-        <v>38</v>
+        <v>11</v>
       </c>
     </row>
     <row r="30">
@@ -17458,11 +17458,11 @@
         </is>
       </c>
       <c r="B1" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>out</t>
+          <t>in</t>
         </is>
       </c>
     </row>
@@ -17578,11 +17578,11 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>out</t>
+          <t>in</t>
         </is>
       </c>
     </row>
